--- a/images/eLAB Demo Metadata.xlsx
+++ b/images/eLAB Demo Metadata.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/erikhosler/Documents/Octo/FBI_Project/case notes demo/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/erikhosler/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="80" yWindow="460" windowWidth="28720" windowHeight="17540" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28720" windowHeight="17540" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="54">
   <si>
     <t>Case Metadata</t>
   </si>
@@ -68,9 +68,6 @@
     <t>Name</t>
   </si>
   <si>
-    <t>Verified</t>
-  </si>
-  <si>
     <t>For Analysis</t>
   </si>
   <si>
@@ -80,9 +77,6 @@
     <t>Drop Down</t>
   </si>
   <si>
-    <t>Text</t>
-  </si>
-  <si>
     <t>Check Box</t>
   </si>
   <si>
@@ -92,12 +86,6 @@
     <t>Field Value(s)</t>
   </si>
   <si>
-    <t>Container
-Package
-Item
-Request</t>
-  </si>
-  <si>
     <t>Evidence Data Types</t>
   </si>
   <si>
@@ -144,9 +132,6 @@
   </si>
   <si>
     <t>Assigned Date</t>
-  </si>
-  <si>
-    <t>D/T</t>
   </si>
   <si>
     <t>Start Date</t>
@@ -189,6 +174,29 @@
   </si>
   <si>
     <t>Barb McCullen</t>
+  </si>
+  <si>
+    <t>Violation Date:</t>
+  </si>
+  <si>
+    <t>INT</t>
+  </si>
+  <si>
+    <t>Barb McCullen
+Tim Miller
+Marcus Stanton
+Juliette Fitzsimmons</t>
+  </si>
+  <si>
+    <t>VARCHAR(MAX)</t>
+  </si>
+  <si>
+    <t>D/T w/ Time Zone</t>
+  </si>
+  <si>
+    <t>Container
+Package
+Item</t>
   </si>
 </sst>
 </file>
@@ -198,10 +206,34 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-409]m/d/yy\ h:mm\ AM/PM;@"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -224,10 +256,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -238,10 +274,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="5">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -517,32 +563,35 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O22"/>
+  <dimension ref="A1:N22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="13.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16" customWidth="1"/>
-    <col min="10" max="10" width="14.5" customWidth="1"/>
-    <col min="12" max="12" width="19.83203125" customWidth="1"/>
+    <col min="5" max="5" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="23.5" customWidth="1"/>
+    <col min="10" max="10" width="20" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19.83203125" customWidth="1"/>
+    <col min="12" max="12" width="12.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="D1" t="s">
-        <v>22</v>
-      </c>
-      <c r="J1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="D1" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -556,19 +605,19 @@
         <v>10</v>
       </c>
       <c r="F2" t="s">
-        <v>20</v>
+        <v>18</v>
+      </c>
+      <c r="I2" t="s">
+        <v>1</v>
       </c>
       <c r="J2" t="s">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="K2" t="s">
-        <v>10</v>
-      </c>
-      <c r="L2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="64" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
@@ -580,22 +629,22 @@
         <v>11</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>21</v>
+        <v>53</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="L3" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+        <v>15</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>5</v>
       </c>
@@ -604,21 +653,21 @@
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>15</v>
+        <v>49</v>
       </c>
       <c r="F4" s="2"/>
+      <c r="I4" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="J4" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="L4" s="2"/>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+        <v>51</v>
+      </c>
+      <c r="K4" s="2"/>
+    </row>
+    <row r="5" spans="1:14" ht="64" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>7</v>
       </c>
@@ -630,18 +679,20 @@
         <v>12</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>17</v>
+        <v>51</v>
       </c>
       <c r="F5" s="2"/>
+      <c r="I5" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="J5" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="L5" s="2"/>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+        <v>15</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>8</v>
       </c>
@@ -650,287 +701,263 @@
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F6" s="2"/>
+      <c r="I6" s="2" t="s">
+        <v>34</v>
+      </c>
       <c r="J6" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="K6" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="L6" s="2"/>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
+        <v>52</v>
+      </c>
+      <c r="K6" s="2"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B7" s="5">
+        <v>42809</v>
+      </c>
       <c r="C7" s="2"/>
-      <c r="D7" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>18</v>
-      </c>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
       <c r="F7" s="2"/>
+      <c r="I7" s="2" t="s">
+        <v>35</v>
+      </c>
       <c r="J7" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="K7" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="L7" s="2"/>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+        <v>52</v>
+      </c>
+      <c r="K7" s="2"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="I8" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="J8" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="K8" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="L8" s="2"/>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="D9" s="2" t="s">
-        <v>23</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="K8" s="2"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="D9" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="I9" s="2"/>
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
-      <c r="L9" s="2"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D10" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F10" t="s">
         <v>12</v>
       </c>
       <c r="G10" t="s">
-        <v>14</v>
-      </c>
-      <c r="H10" t="s">
         <v>13</v>
       </c>
-      <c r="J10" s="2" t="s">
-        <v>42</v>
-      </c>
+      <c r="I10" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="J10" s="2"/>
       <c r="K10" s="2"/>
-      <c r="L10" s="2"/>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D11" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E11">
         <v>1</v>
       </c>
       <c r="F11" t="s">
-        <v>24</v>
-      </c>
-      <c r="H11" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="L11" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="M11" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="N11" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="M11" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="N11" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="O11" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D12" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E12">
         <v>1</v>
       </c>
       <c r="F12" t="s">
-        <v>27</v>
-      </c>
-      <c r="H12" t="s">
+        <v>24</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="L12" s="4">
+        <v>42797</v>
+      </c>
+      <c r="M12" s="4">
+        <v>42798</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="D13" s="2" t="s">
         <v>25</v>
-      </c>
-      <c r="J12" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="K12" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="L12" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="M12" s="5">
-        <v>42797</v>
-      </c>
-      <c r="N12" s="5">
-        <v>42798</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="D13" s="2" t="s">
-        <v>28</v>
       </c>
       <c r="E13">
         <v>1</v>
       </c>
       <c r="F13" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="G13" t="s">
+        <v>22</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="L13" s="4">
+        <v>42794</v>
+      </c>
+      <c r="M13" s="4">
+        <v>42794</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="D14" s="2" t="s">
         <v>25</v>
-      </c>
-      <c r="H13" t="s">
-        <v>25</v>
-      </c>
-      <c r="J13" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="K13" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="L13" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="M13" s="5">
-        <v>42794</v>
-      </c>
-      <c r="N13" s="5">
-        <v>42794</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="D14" s="2" t="s">
-        <v>28</v>
       </c>
       <c r="E14">
         <v>2</v>
       </c>
       <c r="F14" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="G14" t="s">
+        <v>22</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="L14" s="4">
+        <v>42821</v>
+      </c>
+      <c r="M14" s="4">
+        <v>42821</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="D15" s="2" t="s">
         <v>25</v>
-      </c>
-      <c r="H14" t="s">
-        <v>25</v>
-      </c>
-      <c r="J14" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="K14" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="L14" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="M14" s="5">
-        <v>42821</v>
-      </c>
-      <c r="N14" s="5">
-        <v>42821</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="D15" s="2" t="s">
-        <v>28</v>
       </c>
       <c r="E15">
         <v>3</v>
       </c>
       <c r="F15" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G15" t="s">
-        <v>25</v>
-      </c>
-      <c r="H15" t="s">
-        <v>25</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="I15" s="2"/>
       <c r="J15" s="2"/>
       <c r="K15" s="2"/>
-      <c r="L15" s="2"/>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E16">
         <v>4</v>
       </c>
       <c r="F16" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G16" t="s">
-        <v>25</v>
-      </c>
-      <c r="H16" t="s">
-        <v>25</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="I16" s="2"/>
       <c r="J16" s="2"/>
       <c r="K16" s="2"/>
-      <c r="L16" s="2"/>
-    </row>
-    <row r="17" spans="4:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="17" spans="4:11" x14ac:dyDescent="0.2">
       <c r="D17" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E17">
         <v>5</v>
       </c>
       <c r="F17" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G17" t="s">
-        <v>25</v>
-      </c>
-      <c r="H17" t="s">
-        <v>25</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="I17" s="2"/>
       <c r="J17" s="2"/>
       <c r="K17" s="2"/>
-      <c r="L17" s="2"/>
-    </row>
-    <row r="18" spans="4:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="18" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="I18" s="2"/>
       <c r="J18" s="2"/>
       <c r="K18" s="2"/>
-      <c r="L18" s="2"/>
-    </row>
-    <row r="19" spans="4:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="19" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="I19" s="2"/>
       <c r="J19" s="2"/>
       <c r="K19" s="2"/>
-      <c r="L19" s="2"/>
-    </row>
-    <row r="20" spans="4:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="20" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="I20" s="2"/>
       <c r="J20" s="2"/>
       <c r="K20" s="2"/>
-      <c r="L20" s="2"/>
-    </row>
-    <row r="21" spans="4:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="21" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="I21" s="2"/>
       <c r="J21" s="2"/>
       <c r="K21" s="2"/>
-      <c r="L21" s="2"/>
-    </row>
-    <row r="22" spans="4:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="22" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="I22" s="2"/>
       <c r="J22" s="2"/>
       <c r="K22" s="2"/>
-      <c r="L22" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
